--- a/Example-web 1.xlsx
+++ b/Example-web 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsuni-my.sharepoint.com/personal/ella_sartory_student_uva_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellasartory/Desktop/tide-ws/tide-ws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE94E84-52A3-1546-A5ED-13F7AB2947D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE7B40-E12B-A441-92DD-2576F3057416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17080" xr2:uid="{8B004D9F-539D-2A46-9487-C8A7A0BAFD95}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" xr2:uid="{8B004D9F-539D-2A46-9487-C8A7A0BAFD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hi</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t xml:space="preserve">ablh </t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>TIDE</t>
   </si>
 </sst>
 </file>
@@ -416,20 +425,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802E882D-62F1-DB42-A0AE-C159024A3B8B}">
-  <dimension ref="C5:E21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>1</v>
       </c>

--- a/Example-web 1.xlsx
+++ b/Example-web 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellasartory/Desktop/tide-ws/tide-ws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE7B40-E12B-A441-92DD-2576F3057416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7474E20-ED2C-5B47-82C0-C55322DA9068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" xr2:uid="{8B004D9F-539D-2A46-9487-C8A7A0BAFD95}"/>
   </bookViews>
@@ -106,6 +106,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>148025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0D72B0-08EF-5E6D-4D53-106DA80545B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="76200"/>
+          <a:ext cx="7772400" cy="4542225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,7 +483,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,5 +516,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Example-web 1.xlsx
+++ b/Example-web 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellasartory/Desktop/tide-ws/tide-ws/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellasartory/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7474E20-ED2C-5B47-82C0-C55322DA9068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F60A116-377D-8D47-8A55-A4707533A804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" xr2:uid="{8B004D9F-539D-2A46-9487-C8A7A0BAFD95}"/>
   </bookViews>
@@ -36,24 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>blah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ablh </t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>TIDE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>*Downloadable Template coming soon*</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
   </si>
 </sst>
 </file>
@@ -106,61 +109,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>148025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0D72B0-08EF-5E6D-4D53-106DA80545B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12700" y="76200"/>
-          <a:ext cx="7772400" cy="4542225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,42 +428,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802E882D-62F1-DB42-A0AE-C159024A3B8B}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Example-web 1.xlsx
+++ b/Example-web 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellasartory/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellasartory/Desktop/tide-ws/tide-ws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F60A116-377D-8D47-8A55-A4707533A804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA425455-41C6-AD49-B52C-2B705E79546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" xr2:uid="{8B004D9F-539D-2A46-9487-C8A7A0BAFD95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>*Downloadable Template coming soon*</t>
   </si>
@@ -50,13 +50,7 @@
     <t>Year 3</t>
   </si>
   <si>
-    <t>Year 4</t>
-  </si>
-  <si>
-    <t>Year 5</t>
-  </si>
-  <si>
-    <t>Year 6</t>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -428,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802E882D-62F1-DB42-A0AE-C159024A3B8B}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,24 +435,35 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
